--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-944396.4920301569</v>
+        <v>-947233.9790026728</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>39.70122005611979</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>184.1819609498576</v>
+        <v>31.17711402436149</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>387.1443639382585</v>
+        <v>387.1443639382606</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92426460676387</v>
+        <v>61.29227716100415</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.8191260590221</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>33.68798027969967</v>
+        <v>33.68798027969922</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>72.31938566699137</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7941764535314</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.27207475090987</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.17885117990245</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8394517711275</v>
+        <v>200.7201988909278</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>126.2082471425184</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>118.889440420324</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>155.9342797404094</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6272275370029</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>55.03030660673756</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>20.27697994470624</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>198.7479953121807</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>141.3287705366842</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.58000612420956</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.32649042089488</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788177567</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.3386246450013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>62.18842302760095</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652579</v>
@@ -3472,7 +3472,7 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.8416170062755</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="C2" t="n">
-        <v>393.8416170062755</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062755</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062755</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F2" t="n">
-        <v>393.8416170062755</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487954</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487954</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487954</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487954</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487954</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301.4756378121077</v>
+        <v>360.975192260685</v>
       </c>
       <c r="C3" t="n">
-        <v>301.4756378121077</v>
+        <v>360.975192260685</v>
       </c>
       <c r="D3" t="n">
-        <v>152.5412281508565</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099437</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099437</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099437</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X3" t="n">
-        <v>301.4756378121077</v>
+        <v>529.190529280753</v>
       </c>
       <c r="Y3" t="n">
-        <v>301.4756378121077</v>
+        <v>529.190529280753</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>793.3469735248641</v>
+        <v>796.8864654365627</v>
       </c>
       <c r="C5" t="n">
-        <v>793.3469735248641</v>
+        <v>796.8864654365627</v>
       </c>
       <c r="D5" t="n">
-        <v>435.0812749181136</v>
+        <v>796.8864654365627</v>
       </c>
       <c r="E5" t="n">
-        <v>435.0812749181136</v>
+        <v>796.8864654365627</v>
       </c>
       <c r="F5" t="n">
-        <v>44.0263618491656</v>
+        <v>405.8315523676126</v>
       </c>
       <c r="G5" t="n">
-        <v>30.97154911506068</v>
+        <v>343.9201612958913</v>
       </c>
       <c r="H5" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="I5" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="J5" t="n">
-        <v>95.04805787398755</v>
+        <v>95.04805787398811</v>
       </c>
       <c r="K5" t="n">
-        <v>241.8206526282294</v>
+        <v>241.8206526282308</v>
       </c>
       <c r="L5" t="n">
-        <v>460.8067967994259</v>
+        <v>460.8067967994285</v>
       </c>
       <c r="M5" t="n">
-        <v>736.1405137467233</v>
+        <v>736.1405137467273</v>
       </c>
       <c r="N5" t="n">
-        <v>1020.5432264656</v>
+        <v>1020.543226465605</v>
       </c>
       <c r="O5" t="n">
-        <v>1275.761382127136</v>
+        <v>1275.761382127142</v>
       </c>
       <c r="P5" t="n">
-        <v>1459.083172444585</v>
+        <v>1459.083172444593</v>
       </c>
       <c r="Q5" t="n">
-        <v>1548.577455753034</v>
+        <v>1548.577455753042</v>
       </c>
       <c r="R5" t="n">
-        <v>1514.549192844246</v>
+        <v>1514.549192844255</v>
       </c>
       <c r="S5" t="n">
-        <v>1514.549192844246</v>
+        <v>1514.549192844255</v>
       </c>
       <c r="T5" t="n">
-        <v>1514.549192844246</v>
+        <v>1514.549192844255</v>
       </c>
       <c r="U5" t="n">
-        <v>1514.549192844246</v>
+        <v>1514.549192844255</v>
       </c>
       <c r="V5" t="n">
-        <v>1183.486305500676</v>
+        <v>1183.486305500684</v>
       </c>
       <c r="W5" t="n">
-        <v>1183.486305500676</v>
+        <v>1183.486305500684</v>
       </c>
       <c r="X5" t="n">
-        <v>1183.486305500676</v>
+        <v>1183.486305500684</v>
       </c>
       <c r="Y5" t="n">
-        <v>793.3469735248641</v>
+        <v>1183.486305500684</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>390.1216780899713</v>
+        <v>461.9717187604977</v>
       </c>
       <c r="C6" t="n">
-        <v>390.1216780899713</v>
+        <v>461.9717187604977</v>
       </c>
       <c r="D6" t="n">
-        <v>241.18726842872</v>
+        <v>313.0373090992464</v>
       </c>
       <c r="E6" t="n">
-        <v>241.18726842872</v>
+        <v>313.0373090992464</v>
       </c>
       <c r="F6" t="n">
-        <v>168.1373839166075</v>
+        <v>313.0373090992464</v>
       </c>
       <c r="G6" t="n">
-        <v>30.97154911506068</v>
+        <v>175.8714742976996</v>
       </c>
       <c r="H6" t="n">
-        <v>30.97154911506068</v>
+        <v>77.61685333718454</v>
       </c>
       <c r="I6" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="J6" t="n">
-        <v>50.31723180685442</v>
+        <v>50.31723180685496</v>
       </c>
       <c r="K6" t="n">
-        <v>161.5369095870582</v>
+        <v>161.5369095870594</v>
       </c>
       <c r="L6" t="n">
-        <v>357.4080328784265</v>
+        <v>357.4080328784285</v>
       </c>
       <c r="M6" t="n">
-        <v>605.3372632876865</v>
+        <v>605.3372632876894</v>
       </c>
       <c r="N6" t="n">
-        <v>874.2370876051771</v>
+        <v>874.2370876051812</v>
       </c>
       <c r="O6" t="n">
-        <v>1098.008097812156</v>
+        <v>1098.008097812161</v>
       </c>
       <c r="P6" t="n">
-        <v>1258.270995260722</v>
+        <v>1258.270995260727</v>
       </c>
       <c r="Q6" t="n">
-        <v>1315.483301610123</v>
+        <v>1315.483301610129</v>
       </c>
       <c r="R6" t="n">
-        <v>1315.483301610123</v>
+        <v>1315.483301610129</v>
       </c>
       <c r="S6" t="n">
-        <v>1315.483301610123</v>
+        <v>1315.483301610129</v>
       </c>
       <c r="T6" t="n">
-        <v>1315.483301610123</v>
+        <v>1315.483301610129</v>
       </c>
       <c r="U6" t="n">
-        <v>1087.362643255448</v>
+        <v>1112.735625962727</v>
       </c>
       <c r="V6" t="n">
-        <v>852.2105350237057</v>
+        <v>877.5835177309843</v>
       </c>
       <c r="W6" t="n">
-        <v>597.9731782955041</v>
+        <v>877.5835177309843</v>
       </c>
       <c r="X6" t="n">
-        <v>390.1216780899713</v>
+        <v>669.7320175254515</v>
       </c>
       <c r="Y6" t="n">
-        <v>390.1216780899713</v>
+        <v>461.9717187604977</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>308.5712664491322</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="C7" t="n">
-        <v>181.0881885273964</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="D7" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="E7" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="F7" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="G7" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="H7" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="I7" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="J7" t="n">
-        <v>30.97154911506068</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="K7" t="n">
-        <v>52.64965043609686</v>
+        <v>52.64965043609739</v>
       </c>
       <c r="L7" t="n">
-        <v>110.2959543201712</v>
+        <v>110.2959543201722</v>
       </c>
       <c r="M7" t="n">
-        <v>174.3341821718875</v>
+        <v>174.334182171889</v>
       </c>
       <c r="N7" t="n">
-        <v>244.7072500037151</v>
+        <v>244.7072500037171</v>
       </c>
       <c r="O7" t="n">
-        <v>289.3950794398806</v>
+        <v>289.3950794398831</v>
       </c>
       <c r="P7" t="n">
-        <v>308.5712664491322</v>
+        <v>308.571266449135</v>
       </c>
       <c r="Q7" t="n">
-        <v>308.5712664491322</v>
+        <v>308.571266449135</v>
       </c>
       <c r="R7" t="n">
-        <v>308.5712664491322</v>
+        <v>188.4809225902218</v>
       </c>
       <c r="S7" t="n">
-        <v>308.5712664491322</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="T7" t="n">
-        <v>308.5712664491322</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="U7" t="n">
-        <v>308.5712664491322</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="V7" t="n">
-        <v>308.5712664491322</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="W7" t="n">
-        <v>308.5712664491322</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="X7" t="n">
-        <v>308.5712664491322</v>
+        <v>30.97154911506085</v>
       </c>
       <c r="Y7" t="n">
-        <v>308.5712664491322</v>
+        <v>30.97154911506085</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1778.320494928841</v>
+        <v>1218.917333722337</v>
       </c>
       <c r="C8" t="n">
-        <v>1778.320494928841</v>
+        <v>849.9548167819253</v>
       </c>
       <c r="D8" t="n">
-        <v>1420.054796322091</v>
+        <v>491.6891181751748</v>
       </c>
       <c r="E8" t="n">
-        <v>1034.266543723846</v>
+        <v>105.9008655769305</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>98.95536482772705</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.587892771188</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>1605.517173786459</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>1605.517173786459</v>
       </c>
       <c r="Y8" t="n">
-        <v>1778.320494928841</v>
+        <v>1605.517173786459</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829875</v>
+        <v>660.4702325826747</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018606</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406093</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351538</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446203876</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333487</v>
+        <v>1565.471496513106</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101744</v>
+        <v>1330.319388281363</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373542</v>
+        <v>1076.082031553161</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168009</v>
+        <v>868.2305313476286</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030556</v>
+        <v>660.4702325826747</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.70688273934482</v>
+        <v>377.5330131651621</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934482</v>
+        <v>208.5968302372551</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934482</v>
+        <v>208.5968302372551</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934482</v>
+        <v>208.5968302372551</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>464.1479267131147</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Y10" t="n">
-        <v>243.3553475695845</v>
+        <v>520.2893470406007</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5230,19 +5230,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5261,7 +5261,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5285,16 +5285,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>580.899304487667</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597601</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597601</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597601</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6491,7 +6491,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7120,16 +7120,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,31 +7582,31 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.33868158239</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,16 +7643,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.5613044873859</v>
+        <v>97.90856364731555</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871024</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>282.1958139909664</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.40545032729</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.5054897610424</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>136.2749052347537</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>144.5956654067403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.24602870709344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>84.24553961896822</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-5.562217481057792e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-5.329070518200751e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1204569.945738043</v>
+        <v>1204569.945738042</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1204569.945738042</v>
+        <v>1204569.945738043</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1204569.945738043</v>
+        <v>1204569.945738042</v>
       </c>
     </row>
     <row r="12">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189998.5267816801</v>
+        <v>189998.5267816802</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126777</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="G2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="H2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="J2" t="n">
         <v>221965.3149147518</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="L2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>220966.6210019815</v>
+        <v>220966.6210019842</v>
       </c>
       <c r="D3" t="n">
-        <v>162386.833362166</v>
+        <v>162386.833362165</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854447</v>
       </c>
       <c r="K3" t="n">
-        <v>51375.4853402403</v>
+        <v>51375.48534024094</v>
       </c>
       <c r="L3" t="n">
-        <v>39221.66229928359</v>
+        <v>39221.66229928334</v>
       </c>
       <c r="M3" t="n">
-        <v>176574.0985452298</v>
+        <v>176574.0985452295</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204258.0585418868</v>
+        <v>204258.0585418869</v>
       </c>
       <c r="C4" t="n">
-        <v>219793.1782176789</v>
+        <v>219793.1782176783</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26433,31 +26433,31 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186742</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
+        <v>22817.55530496085</v>
+      </c>
+      <c r="N4" t="n">
         <v>22817.55530496084</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>22817.55530496083</v>
       </c>
-      <c r="O4" t="n">
-        <v>22817.55530496089</v>
-      </c>
       <c r="P4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>72868.68132712523</v>
+        <v>72868.68132712541</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662602.2346926659</v>
+        <v>-662927.5797829474</v>
       </c>
       <c r="C6" t="n">
-        <v>-287841.9938341079</v>
+        <v>-287841.99383411</v>
       </c>
       <c r="D6" t="n">
-        <v>-196002.4185942581</v>
+        <v>-196002.418594257</v>
       </c>
       <c r="E6" t="n">
-        <v>-495427.118525288</v>
+        <v>-495461.8564507226</v>
       </c>
       <c r="F6" t="n">
-        <v>106016.0890489772</v>
+        <v>105981.3511235416</v>
       </c>
       <c r="G6" t="n">
-        <v>106016.0890489771</v>
+        <v>105981.3511235416</v>
       </c>
       <c r="H6" t="n">
-        <v>106016.0890489772</v>
+        <v>105981.3511235416</v>
       </c>
       <c r="I6" t="n">
-        <v>106016.0890489773</v>
+        <v>105981.3511235417</v>
       </c>
       <c r="J6" t="n">
-        <v>56951.14432043268</v>
+        <v>56916.40639499707</v>
       </c>
       <c r="K6" t="n">
-        <v>54640.6037087369</v>
+        <v>54605.86578330063</v>
       </c>
       <c r="L6" t="n">
-        <v>66794.42674969354</v>
+        <v>66759.68882425825</v>
       </c>
       <c r="M6" t="n">
-        <v>-76769.28299142796</v>
+        <v>-76769.2829914277</v>
       </c>
       <c r="N6" t="n">
+        <v>99804.8155538018</v>
+      </c>
+      <c r="O6" t="n">
         <v>99804.81555380183</v>
       </c>
-      <c r="O6" t="n">
-        <v>99804.81555380182</v>
-      </c>
       <c r="P6" t="n">
-        <v>99804.81555380186</v>
+        <v>99804.81555380189</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>720.3075229210605</v>
+        <v>720.3075229210623</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>387.1443639382585</v>
+        <v>387.1443639382606</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>171.8375820081557</v>
+        <v>171.8375820081577</v>
       </c>
       <c r="D3" t="n">
-        <v>133.4031416166237</v>
+        <v>133.4031416166229</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>199.6187767719384</v>
+        <v>199.6187767719406</v>
       </c>
       <c r="D4" t="n">
-        <v>154.9705927879047</v>
+        <v>154.9705927879037</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663194</v>
       </c>
       <c r="K4" t="n">
-        <v>199.6187767719386</v>
+        <v>199.6187767719411</v>
       </c>
       <c r="L4" t="n">
-        <v>154.9705927879047</v>
+        <v>154.9705927879037</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>199.6187767719384</v>
+        <v>199.6187767719406</v>
       </c>
       <c r="L4" t="n">
-        <v>154.9705927879047</v>
+        <v>154.9705927879037</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>284.825278016165</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>314.9818215645632</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>87.53528668750266</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377083</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>21.59102425361985</v>
+        <v>174.595871179116</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441934</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>4.85405337381949</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>19.73168180345294</v>
+        <v>19.73168180345084</v>
       </c>
       <c r="G5" t="n">
-        <v>399.4827642735127</v>
+        <v>351.1147517192724</v>
       </c>
       <c r="H5" t="n">
-        <v>309.8191260590222</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>98.83908242502224</v>
+        <v>98.83908242502196</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.0341090694065</v>
+        <v>143.0341090694063</v>
       </c>
       <c r="T5" t="n">
         <v>210.4198850150381</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>72.74982672639251</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.27207475090989</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.17885117990259</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.48447288405323</v>
+        <v>49.48447288405299</v>
       </c>
       <c r="S6" t="n">
         <v>142.9048469569445</v>
@@ -27749,19 +27749,19 @@
         <v>193.9197983781758</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>25.11925288019972</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>41.03857395610943</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>150.6786355006068</v>
       </c>
       <c r="I7" t="n">
-        <v>116.3885522088506</v>
+        <v>116.3885522088505</v>
       </c>
       <c r="J7" t="n">
-        <v>35.16211642698487</v>
+        <v>35.16211642698462</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.73856566836571</v>
+        <v>42.73856566836544</v>
       </c>
       <c r="R7" t="n">
-        <v>118.8894404203242</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.3800485051744</v>
+        <v>45.44576876476492</v>
       </c>
       <c r="T7" t="n">
         <v>222.395679005775</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.2488182047086</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>356.8404282368892</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>115.230253902329</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27986,7 +27986,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>27.07257865588787</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>38.50320964525309</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>170.1296492648276</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.895708634858532</v>
+        <v>2.895708634858539</v>
       </c>
       <c r="H5" t="n">
-        <v>29.65567605674495</v>
+        <v>29.65567605674503</v>
       </c>
       <c r="I5" t="n">
-        <v>111.6368071453837</v>
+        <v>111.636807145384</v>
       </c>
       <c r="J5" t="n">
-        <v>245.7696507478246</v>
+        <v>245.7696507478252</v>
       </c>
       <c r="K5" t="n">
-        <v>368.3449972613863</v>
+        <v>368.3449972613873</v>
       </c>
       <c r="L5" t="n">
-        <v>456.9645403954382</v>
+        <v>456.9645403954394</v>
       </c>
       <c r="M5" t="n">
-        <v>508.4610988306036</v>
+        <v>508.4610988306049</v>
       </c>
       <c r="N5" t="n">
-        <v>516.6885309893955</v>
+        <v>516.6885309893968</v>
       </c>
       <c r="O5" t="n">
-        <v>487.8943282515209</v>
+        <v>487.8943282515222</v>
       </c>
       <c r="P5" t="n">
-        <v>416.4065213284508</v>
+        <v>416.4065213284519</v>
       </c>
       <c r="Q5" t="n">
-        <v>312.7039558425795</v>
+        <v>312.7039558425803</v>
       </c>
       <c r="R5" t="n">
-        <v>181.8975575344325</v>
+        <v>181.8975575344329</v>
       </c>
       <c r="S5" t="n">
-        <v>65.98596051683887</v>
+        <v>65.98596051683904</v>
       </c>
       <c r="T5" t="n">
-        <v>12.67596454909323</v>
+        <v>12.67596454909326</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2316566907886825</v>
+        <v>0.2316566907886831</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.549340709679262</v>
+        <v>1.549340709679266</v>
       </c>
       <c r="H6" t="n">
-        <v>14.96336948558656</v>
+        <v>14.9633694855866</v>
       </c>
       <c r="I6" t="n">
-        <v>53.34352882009741</v>
+        <v>53.34352882009755</v>
       </c>
       <c r="J6" t="n">
-        <v>146.3787202947412</v>
+        <v>146.3787202947416</v>
       </c>
       <c r="K6" t="n">
-        <v>250.1845478432517</v>
+        <v>250.1845478432524</v>
       </c>
       <c r="L6" t="n">
-        <v>336.4039992661047</v>
+        <v>336.4039992661056</v>
       </c>
       <c r="M6" t="n">
-        <v>392.5675999919779</v>
+        <v>392.5675999919789</v>
       </c>
       <c r="N6" t="n">
-        <v>402.9576962424148</v>
+        <v>402.9576962424158</v>
       </c>
       <c r="O6" t="n">
-        <v>368.6275678858374</v>
+        <v>368.6275678858383</v>
       </c>
       <c r="P6" t="n">
-        <v>295.8561220088409</v>
+        <v>295.8561220088416</v>
       </c>
       <c r="Q6" t="n">
-        <v>197.7719825197599</v>
+        <v>197.7719825197604</v>
       </c>
       <c r="R6" t="n">
-        <v>96.19503107991072</v>
+        <v>96.19503107991096</v>
       </c>
       <c r="S6" t="n">
-        <v>28.77832414689329</v>
+        <v>28.77832414689336</v>
       </c>
       <c r="T6" t="n">
-        <v>6.244930316645796</v>
+        <v>6.244930316645811</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1019303098473199</v>
+        <v>0.1019303098473202</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.298915205267486</v>
+        <v>1.298915205267489</v>
       </c>
       <c r="H7" t="n">
-        <v>11.54853700683275</v>
+        <v>11.54853700683278</v>
       </c>
       <c r="I7" t="n">
-        <v>39.06192271840768</v>
+        <v>39.06192271840778</v>
       </c>
       <c r="J7" t="n">
-        <v>91.83330501241124</v>
+        <v>91.83330501241149</v>
       </c>
       <c r="K7" t="n">
-        <v>150.9103302119861</v>
+        <v>150.9103302119864</v>
       </c>
       <c r="L7" t="n">
-        <v>193.1132660631315</v>
+        <v>193.113266063132</v>
       </c>
       <c r="M7" t="n">
-        <v>203.6108625857023</v>
+        <v>203.6108625857028</v>
       </c>
       <c r="N7" t="n">
-        <v>198.7694513660691</v>
+        <v>198.7694513660697</v>
       </c>
       <c r="O7" t="n">
-        <v>183.5957601045353</v>
+        <v>183.5957601045357</v>
       </c>
       <c r="P7" t="n">
-        <v>157.0978899170784</v>
+        <v>157.0978899170788</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.7664359610801</v>
+        <v>108.7664359610804</v>
       </c>
       <c r="R7" t="n">
-        <v>58.40395095684531</v>
+        <v>58.40395095684546</v>
       </c>
       <c r="S7" t="n">
-        <v>22.63654953179791</v>
+        <v>22.63654953179796</v>
       </c>
       <c r="T7" t="n">
-        <v>5.549910422506529</v>
+        <v>5.549910422506543</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0708499202873175</v>
+        <v>0.07084992028731768</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>64.7237462211383</v>
+        <v>64.72374622113892</v>
       </c>
       <c r="K5" t="n">
-        <v>148.2551462164058</v>
+        <v>148.2551462164067</v>
       </c>
       <c r="L5" t="n">
-        <v>221.198125425451</v>
+        <v>221.1981254254521</v>
       </c>
       <c r="M5" t="n">
-        <v>278.1148656033309</v>
+        <v>278.1148656033322</v>
       </c>
       <c r="N5" t="n">
-        <v>287.2754673928046</v>
+        <v>287.2754673928059</v>
       </c>
       <c r="O5" t="n">
-        <v>257.7961168298342</v>
+        <v>257.7961168298355</v>
       </c>
       <c r="P5" t="n">
-        <v>185.1735255731813</v>
+        <v>185.1735255731824</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.39826596813006</v>
+        <v>90.39826596813086</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>19.54109362807449</v>
+        <v>19.54109362807486</v>
       </c>
       <c r="K6" t="n">
-        <v>112.3431088688928</v>
+        <v>112.3431088688934</v>
       </c>
       <c r="L6" t="n">
-        <v>197.8496194862306</v>
+        <v>197.8496194862314</v>
       </c>
       <c r="M6" t="n">
-        <v>250.4335660699596</v>
+        <v>250.4335660699606</v>
       </c>
       <c r="N6" t="n">
-        <v>271.6159841590814</v>
+        <v>271.6159841590825</v>
       </c>
       <c r="O6" t="n">
-        <v>226.031323441393</v>
+        <v>226.0313234413939</v>
       </c>
       <c r="P6" t="n">
-        <v>161.8817145945106</v>
+        <v>161.8817145945114</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.79020843373834</v>
+        <v>57.79020843373885</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.89707204145068</v>
+        <v>21.89707204145105</v>
       </c>
       <c r="L7" t="n">
-        <v>58.22858978189325</v>
+        <v>58.22858978189373</v>
       </c>
       <c r="M7" t="n">
-        <v>64.68507863809728</v>
+        <v>64.68507863809779</v>
       </c>
       <c r="N7" t="n">
-        <v>71.08390690083596</v>
+        <v>71.08390690083647</v>
       </c>
       <c r="O7" t="n">
-        <v>45.13922165269247</v>
+        <v>45.13922165269295</v>
       </c>
       <c r="P7" t="n">
-        <v>19.3698858679308</v>
+        <v>19.3698858679312</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
